--- a/medicine/Enfance/Bruno_Heitz/Bruno_Heitz.xlsx
+++ b/medicine/Enfance/Bruno_Heitz/Bruno_Heitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruno Heitz, est un illustrateur et auteur de bande dessinée et de littérature d'enfance et de jeunesse français né le 10 janvier 1957.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence par se consacrer à l’écriture de plusieurs livres pour enfants. Il rencontre les Éditions Mango pour la collection Les Petits papiers. Aux Éditions Circonflexe, il publie quatre titres d'une bande dessinée sur le métier d'instituteur. Aux Éditions du Seuil, il crée une série de bande dessinée (Un privé à la cambrousse, 9 albums), avec comme héros Hubert, un épicier campagnard et fouineur, qui joue au détective à Beaulieu-sur-Morne, un petit village de la France profonde des années fin 1950-début 1960. Il adapte également Le Roman de Renart aux Éditions Gallimard.
-Il collabore avec l'écrivaine Sylvie Baussier pour illustrer des ouvrages qu'elle écrit, comme Côté filles, côté garçons sur l'identité sexuelle[1], Bientôt citoyen !, une réédition de la précédente Encyclopédie du futur citoyen (2006)[2].
-La revue Griffon lui a consacré un dossier en 1991[3].
+Il collabore avec l'écrivaine Sylvie Baussier pour illustrer des ouvrages qu'elle écrit, comme Côté filles, côté garçons sur l'identité sexuelle, Bientôt citoyen !, une réédition de la précédente Encyclopédie du futur citoyen (2006).
+La revue Griffon lui a consacré un dossier en 1991.
 « J'écris en dessinant, je dessine en écrivant, je ne peux pas faire autrement », dit Bruno Heitz, qui se définit comme un « dessinateur qui raconte des histoires » (Extrait de Griffon, n°119-120, 1991).
 </t>
         </is>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums et romans pour la jeunesse
-Source[4]
+          <t>Albums et romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source
 Je ne sais pas, Mormoiron, Van Den Bosch, 1980
 Au piquet, le loup !, Van Den Bosch, 1981
 Histoire d'un loup qui se faisait voler son vélo, Van Den Bosch, 1981
@@ -695,9 +714,43 @@
 Rue du Coin du bois, Seuil Jeunesse, 2018
 Le Petit Chaperon gris, Le Genévrier, 2019
 L'Arrière-arrière-petit-fils de Barbe-Bleue, Le Genévrier, 2020
-Le Bois dont Pinocchio était fait, Le Genévrier, 2021
-Documentaires pour la jeunesse
-Le petit citoyen, de Marie-Perdrizet, Casterman, 1994
+Le Bois dont Pinocchio était fait, Le Genévrier, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Documentaires pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le petit citoyen, de Marie-Perdrizet, Casterman, 1994
 Médecine, texte de Dominique Voisin, Seuil Jeunesse, coll. « Un métier en poche », 1995
 Le Tour de l'histoire de France, texte de Jeanne Corti, Casterman, 1997
 Ma planète et moi, texte de Sylvia Vaisman, Casterman, coll. « Petit citoyen », 1999
@@ -712,9 +765,43 @@
 Encyclopédie du futur citoyen, écrit par Sylvie Baussier, Casterman, 2006 ; nouvelle édition en 2012 sous le titre Bientôt citoyen !  (ISBN 978-2-203-04850-8) (BNF 42644811)
 C’est quoi le travail ? : L’emploi, la formation, les métiers, texte de E.L. Lawed,  ill. Bruno Heitz, avec la collab. de Catherine Bourgeois, sous la dir. de Lysiane Soubeyrand, Autrement Jeunesse, 2007
 Comment apprendre à ses parents à aimer les livres pour enfants, texte d'Alain Serres, Rue du monde, coll.«  Kouak ! », 2008
-On aime tous la maternelle, texte d'Alain Serres, Rue du monde, 2009
-Bandes dessinées pour la jeunesse
-Série Louisette la taupe
+On aime tous la maternelle, texte d'Alain Serres, Rue du monde, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Louisette la taupe
 Sardine express, Casterman, 2005 ; réédition, L'École des loisirs, coll. « Mille bulles », 2011
 Rapidissimo, Casterman, 2005 ; réédition, L'École des loisirs, coll. « Mille bulles », 2011
 Mouton circus, Casterman, 2007 ; réédition, L'École des loisirs, coll. « Mille bulles », 2012
@@ -728,67 +815,103 @@
 L'Ordi-cagette, Casterman, coll. « Mini BD », 2014
 Kiki, le hamster, Thierry Magnier, coll. « Petite poche BD », 2008
 Pas de vacances pour Kiki ?, Thierry Magnier, coll. « Petite poche BD », 2009
-Série L'Histoire de France en BD [5][11 tomes], texte de Dominique Joly, Casterman, 2010-2014 ; nouvelle édition, L'école des loisirs, coll. « Mille bulles », 2012
+Série L'Histoire de France en BD [11 tomes], texte de Dominique Joly, Casterman, 2010-2014 ; nouvelle édition, L'école des loisirs, coll. « Mille bulles », 2012
 Série L'Histoire de l'Art en BD, texte de Marion Augustin, Casterman
-La Guerre des boutons, d'après Louis Pergaud, Le Genévrier, 2015
-Bandes dessinées
-Boucherie charcuterie même combat, Éditions du Seuil, 1995  (ISBN 2-02-024747-X)
+La Guerre des boutons, d'après Louis Pergaud, Le Genévrier, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Heitz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Boucherie charcuterie même combat, Éditions du Seuil, 1995  (ISBN 2-02-024747-X)
 Série Un privé à la cambrousse
 Un privé à la cambrousse, Éditions du Seuil, 1996
 Une magouille pas ordinaire, Éditions du Seuil, 1997 ; réédition sous le titre Un privé à la cambrouse. Vol. 1, Gallimard, 2011 -  Regroupe Une magouille pas ordinaire et Le bolet de Satan
-Le Bolet de Satan, Éditions du Seuil, 1998[6] ; réédition sous le titre Un privé à la cambrouse. Vol. 1, Gallimard, 2011 -  Regroupe Une magouille pas ordinaire et Le bolet de Satan
-Les Fantômes du garde-barrière, Éditions du Seuil, 1999[7] ; réédition sous le titre Un privé à la cambrouse. Vol. 2, Gallimard, 2012 -  Regroupe Les Fantômes du garde-barrière, Virage dangereux et Au bout du canal
+Le Bolet de Satan, Éditions du Seuil, 1998 ; réédition sous le titre Un privé à la cambrouse. Vol. 1, Gallimard, 2011 -  Regroupe Une magouille pas ordinaire et Le bolet de Satan
+Les Fantômes du garde-barrière, Éditions du Seuil, 1999 ; réédition sous le titre Un privé à la cambrouse. Vol. 2, Gallimard, 2012 -  Regroupe Les Fantômes du garde-barrière, Virage dangereux et Au bout du canal
 Virage dangereux, Éditions du Seuil, 2000 ; réédition sous le titre Un privé à la cambrouse. Vol. 2, Gallimard, 2012 -  Regroupe Les Fantômes du garde-barrière, Virage dangereux et Au bout du canal
-Au bout du canal, Éditions du Seuil, 2000[8] ; réédition sous le titre Un privé à la cambrouse. Vol. 2, Gallimard, 2012 -  Regroupe Les Fantômes du garde-barrière, Virage dangereux et Au bout du canal
+Au bout du canal, Éditions du Seuil, 2000 ; réédition sous le titre Un privé à la cambrouse. Vol. 2, Gallimard, 2012 -  Regroupe Les Fantômes du garde-barrière, Virage dangereux et Au bout du canal
 Retour au bercail, Éditions du Seuil, 2003 ; réédition sous le titre Un privé à la cambrouse. Vol. 3, Gallimard, 2012 -  Regroupe Retour au bercail, Chambre froide et L'Affaire Marguerite
-Chambre froide, Éditions du Seuil, 2004[9] ; réédition sous le titre Un privé à la cambrouse. Vol. 3, Gallimard, 2012 -  Regroupe Retour au bercail, Chambre froide et L'Affaire Marguerite
+Chambre froide, Éditions du Seuil, 2004 ; réédition sous le titre Un privé à la cambrouse. Vol. 3, Gallimard, 2012 -  Regroupe Retour au bercail, Chambre froide et L'Affaire Marguerite
 L'Affaire Marguerite, Éditions du Seuil, 2005 ; ; réédition sous le titre Un privé à la cambrouse. Vol. 3, Gallimard, 2012 -  Regroupe Retour au bercail, Chambre froide et L'Affaire Marguerite
 Le Roman de Renart, Gallimard, coll. « Fétiche »
 Ysengrin, 2007  (ISBN 978-2-07-061015-0)
 Sur les chemins, 2008  (ISBN 978-2-07-061675-6)
 J'ai pas tué de Gaulle mais ça a bien failli…, BD Gallimard, coll. « Bayou », 2010  (ISBN 978-2-07-062883-4)
 C'est pas du Van Gogh mais ça aurait pu..., BD Gallimard, coll. « Bayou », 2011 (ISBN 978-2-07-063799-7)
-J'ai pas volé Pétain mais presque...[10] (bande dessinée librement inspirée du vol du cercueil de Philippe Pétain en février 1973), BD Gallimard, coll. « Bayou », 2014  (ISBN 978-2-07-065569-4)
-C'est pas du polar... mais ça craint quand même ![11], BD Gallimard, coll. « Bayou », 2018  (ISBN 978-2-07-511007-5)
+J'ai pas volé Pétain mais presque... (bande dessinée librement inspirée du vol du cercueil de Philippe Pétain en février 1973), BD Gallimard, coll. « Bayou », 2014  (ISBN 978-2-07-065569-4)
+C'est pas du polar... mais ça craint quand même !, BD Gallimard, coll. « Bayou », 2018  (ISBN 978-2-07-511007-5)
 Les Dessous de Saint-Saturnin, Gallimard BD, 2021-
 Le Bistrot d'Émile
 Tiff'Annie, 2022</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bruno_Heitz</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bruno_Heitz</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1992 : Prix des Bonnetiers pour Tropical Center[4]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1992 : Prix des Bonnetiers pour Tropical Center
 1994 : Prix 1000 jeunes lecteurs, 8/10 ans pour Game over
 1996 : Prix de la ville de Limoges pour Pli non urgent
 1997 : Prix Bernard Versele, 3 chouettes, pour Pli non urgent
 1998 : Prix Beaugency du « Livre le plus drôle de l’année », pour L’agenda du nouvel instit
 2004 : Prix de la presse des jeunes, catégorie junior, pour Le Grand livre contre toutes les violences
-2007 : Prix du Festival Quai des Bulles - Prix Petit Robert, attribué à un scénariste[12]
+2007 : Prix du Festival Quai des Bulles - Prix Petit Robert, attribué à un scénariste
 2008 Prix La Science se livre, 4-8 ans, pour Les petit curieux</t>
         </is>
       </c>
